--- a/medical_records.xlsx
+++ b/medical_records.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huanghaiyong\Desktop\page\me\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\git\depot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>牛黄清感胶囊（每次4颗）、清开灵颗粒(冲剂，每次2包)、对乙酰氨基酚片（发烧服，每次一片）</t>
+    <t>牛黄清感胶囊（一盒（24颗）——每次4颗）、清开灵颗粒(一盒——冲剂，每次2包)、对乙酰氨基酚片（4片——头痛、发烧服，每次1片）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,7 +95,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -104,6 +104,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -198,7 +201,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="CEEAD1"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -457,12 +460,13 @@
   <dimension ref="B2:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="92.25" customWidth="1"/>
+    <col min="4" max="4" width="63.75" customWidth="1"/>
+    <col min="5" max="5" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -485,7 +489,7 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
